--- a/outputs-GTDB-r202/g__UMGS1477.xlsx
+++ b/outputs-GTDB-r202/g__UMGS1477.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s__UMGS1477 sp900552205</t>
+          <t>s__UMGS1477 sp900552205(reject)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__UMGS1477 sp900552205</t>
+          <t>s__UMGS1477 sp900552205(reject)</t>
         </is>
       </c>
     </row>
